--- a/src/test/resources/Files/Base/Prueba.xlsx
+++ b/src/test/resources/Files/Base/Prueba.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kubit\Documents\Secretaria\WAPI\Fase 2\Excel WAPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kubit\Documents\GitHub\WAPI-FASE-2\src\test\resources\Files\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEDCF3E-DEA3-4963-86AB-6019744CB13D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998CD2CD-185C-4528-A1C6-4648FBB2339A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9C9FE06-A81B-488B-8B3A-4F9A9FA97E58}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="6945" xr2:uid="{F9C9FE06-A81B-488B-8B3A-4F9A9FA97E58}"/>
   </bookViews>
   <sheets>
     <sheet name="CDP" sheetId="1" r:id="rId1"/>
@@ -1059,7 +1059,7 @@
   <dimension ref="B3:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1142,7 @@
         <v>10000000</v>
       </c>
       <c r="N4" s="11">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -1221,7 +1221,7 @@
   <dimension ref="B3:S7"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,7 +1331,7 @@
         <v>10000000</v>
       </c>
       <c r="R4" s="17">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="S4" s="8">
         <v>7835</v>

--- a/src/test/resources/Files/Base/Prueba.xlsx
+++ b/src/test/resources/Files/Base/Prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kubit\Documents\GitHub\WAPI-FASE-2\src\test\resources\Files\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998CD2CD-185C-4528-A1C6-4648FBB2339A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F5A355-8E36-4E03-A365-0D0F002063FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="6945" xr2:uid="{F9C9FE06-A81B-488B-8B3A-4F9A9FA97E58}"/>
   </bookViews>
@@ -1059,7 +1059,7 @@
   <dimension ref="B3:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1142,7 @@
         <v>10000000</v>
       </c>
       <c r="N4" s="11">
-        <v>45</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -1221,7 +1221,7 @@
   <dimension ref="B3:S7"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,7 +1331,7 @@
         <v>10000000</v>
       </c>
       <c r="R4" s="17">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="S4" s="8">
         <v>7835</v>

--- a/src/test/resources/Files/Base/Prueba.xlsx
+++ b/src/test/resources/Files/Base/Prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kubit\Documents\GitHub\WAPI-FASE-2\src\test\resources\Files\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F5A355-8E36-4E03-A365-0D0F002063FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC37F040-5BB3-46B4-8899-4B8484F4A7DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16410" windowHeight="6945" xr2:uid="{F9C9FE06-A81B-488B-8B3A-4F9A9FA97E58}"/>
   </bookViews>
@@ -1059,7 +1059,7 @@
   <dimension ref="B3:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,10 +1110,10 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C4" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="6">
         <v>44952</v>
@@ -1142,7 +1142,7 @@
         <v>10000000</v>
       </c>
       <c r="N4" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
